--- a/Prototype/PHPSCRIPTS/JASON/ForecastTemplate.xlsx
+++ b/Prototype/PHPSCRIPTS/JASON/ForecastTemplate.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Timeline</t>
   </si>
@@ -32,10 +32,22 @@
     <t>Room Nights Sold</t>
   </si>
   <si>
-    <t>Forecast</t>
+    <t>Forecasted Date</t>
   </si>
   <si>
-    <t>Forecasted Date</t>
+    <t>Average Room Rate</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Room Night Sold Forecast</t>
+  </si>
+  <si>
+    <t>Average Room Rate Forecast</t>
+  </si>
+  <si>
+    <t>Revenue Forecast</t>
   </si>
 </sst>
 </file>
@@ -392,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E315"/>
+  <dimension ref="A1:I315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,71 +417,93 @@
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" customWidth="1"/>
-    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="E2" t="e">
-        <f>_xlfn.FORECAST.ETS($D2,rns,timeline,1,1)</f>
+      <c r="G2" t="e">
+        <f>_xlfn.FORECAST.ETS($F2,rns,timeline,1,1)</f>
         <v>#NAME?</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H2" t="e">
+        <f>_xlfn.FORECAST.ETS($F2,arr,timeline,1,1)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I2" t="e">
+        <f>_xlfn.FORECAST.ETS($F2,rev,timeline,1,1)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">

--- a/Prototype/PHPSCRIPTS/JASON/ForecastTemplate.xlsx
+++ b/Prototype/PHPSCRIPTS/JASON/ForecastTemplate.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buzon\Documents\SYSADD2\Forecast-Module-2\Prototype\PHPSCRIPTS\SamanAndrey\Jason\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jade Ericson\Documents\GitHub\Forecast-Module-2\Prototype\PHPSCRIPTS\JASON\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RCK" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -416,11 +416,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,6 +479,18 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
+      <c r="G3" t="e">
+        <f>G2</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H3" t="e">
+        <f>H2</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I3" t="e">
+        <f>I2</f>
+        <v>#NAME?</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -1423,7 +1435,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2430,7 +2442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3437,7 +3449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4444,7 +4456,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:I315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5451,7 +5463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6458,7 +6470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7465,7 +7477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8472,7 +8484,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9479,7 +9491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10486,7 +10498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11493,7 +11505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12500,7 +12512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I315"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Prototype/PHPSCRIPTS/JASON/ForecastTemplate.xlsx
+++ b/Prototype/PHPSCRIPTS/JASON/ForecastTemplate.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jade Ericson\Documents\GitHub\Forecast-Module-2\Prototype\PHPSCRIPTS\JASON\"/>
@@ -13,25 +13,62 @@
   </bookViews>
   <sheets>
     <sheet name="RCK" sheetId="1" r:id="rId1"/>
-    <sheet name="CORP" sheetId="3" r:id="rId2"/>
-    <sheet name="CORPO" sheetId="4" r:id="rId3"/>
-    <sheet name="PKG-PRM" sheetId="5" r:id="rId4"/>
-    <sheet name="WSOL" sheetId="6" r:id="rId5"/>
-    <sheet name="WSOF" sheetId="7" r:id="rId6"/>
-    <sheet name="INDO" sheetId="8" r:id="rId7"/>
-    <sheet name="INDR" sheetId="9" r:id="rId8"/>
-    <sheet name="CORPM" sheetId="11" r:id="rId9"/>
-    <sheet name="CON-ASSOC" sheetId="12" r:id="rId10"/>
-    <sheet name="GOV-NGO" sheetId="13" r:id="rId11"/>
-    <sheet name="GRPT" sheetId="14" r:id="rId12"/>
-    <sheet name="GRPO" sheetId="15" r:id="rId13"/>
+    <sheet name="CORP" sheetId="2" r:id="rId2"/>
+    <sheet name="CORPO" sheetId="3" r:id="rId3"/>
+    <sheet name="PKG-PRM" sheetId="4" r:id="rId4"/>
+    <sheet name="WSOL" sheetId="5" r:id="rId5"/>
+    <sheet name="WSOF" sheetId="6" r:id="rId6"/>
+    <sheet name="INDO" sheetId="7" r:id="rId7"/>
+    <sheet name="INDR" sheetId="8" r:id="rId8"/>
+    <sheet name="CORPM" sheetId="9" r:id="rId9"/>
+    <sheet name="CON-ASSOC" sheetId="10" r:id="rId10"/>
+    <sheet name="GOV-NGO" sheetId="11" r:id="rId11"/>
+    <sheet name="GRPT" sheetId="12" r:id="rId12"/>
+    <sheet name="GRPO" sheetId="13" r:id="rId13"/>
   </sheets>
+  <definedNames>
+    <definedName name="arr" localSheetId="9">'CON-ASSOC'!$C$2:$C$7</definedName>
+    <definedName name="arr" localSheetId="1">CORP!$C$2:$C$7</definedName>
+    <definedName name="arr" localSheetId="8">CORPM!$C$2:$C$7</definedName>
+    <definedName name="arr" localSheetId="2">CORPO!$C$2:$C$7</definedName>
+    <definedName name="arr" localSheetId="10">'GOV-NGO'!$C$2:$C$7</definedName>
+    <definedName name="arr" localSheetId="12">GRPO!$C$2:$C$7</definedName>
+    <definedName name="arr" localSheetId="11">GRPT!$C$2:$C$7</definedName>
+    <definedName name="arr" localSheetId="6">INDO!$C$2:$C$7</definedName>
+    <definedName name="arr" localSheetId="7">INDR!$C$2:$C$7</definedName>
+    <definedName name="arr" localSheetId="3">'PKG-PRM'!$C$2:$C$7</definedName>
+    <definedName name="arr" localSheetId="0">RCK!$C$2:$C$7</definedName>
+    <definedName name="arr" localSheetId="5">WSOF!$C$2:$C$7</definedName>
+    <definedName name="arr" localSheetId="4">WSOL!$C$2:$C$7</definedName>
+    <definedName name="rev" localSheetId="9">'CON-ASSOC'!$D$2:$D$7</definedName>
+    <definedName name="rev" localSheetId="1">CORP!$D$2:$D$7</definedName>
+    <definedName name="rev" localSheetId="8">CORPM!$D$2:$D$7</definedName>
+    <definedName name="rev" localSheetId="2">CORPO!$D$2:$D$7</definedName>
+    <definedName name="rev" localSheetId="10">'GOV-NGO'!$D$2:$D$7</definedName>
+    <definedName name="rev" localSheetId="12">GRPO!$D$2:$D$7</definedName>
+    <definedName name="rev" localSheetId="11">GRPT!$D$2:$D$7</definedName>
+    <definedName name="rev" localSheetId="6">INDO!$D$2:$D$7</definedName>
+    <definedName name="rev" localSheetId="7">INDR!$D$2:$D$7</definedName>
+    <definedName name="rev" localSheetId="3">'PKG-PRM'!$D$2:$D$7</definedName>
+    <definedName name="rev" localSheetId="0">RCK!$D$2:$D$7</definedName>
+    <definedName name="rev" localSheetId="5">WSOF!$D$2:$D$7</definedName>
+    <definedName name="rev" localSheetId="4">WSOL!$D$2:$D$7</definedName>
+    <definedName name="rns" localSheetId="9">'CON-ASSOC'!$B$2:$B$7</definedName>
+    <definedName name="rns" localSheetId="1">CORP!$B$2:$B$7</definedName>
+    <definedName name="rns" localSheetId="8">CORPM!$B$2:$B$7</definedName>
+    <definedName name="rns" localSheetId="2">CORPO!$B$2:$B$7</definedName>
+    <definedName name="rns" localSheetId="10">'GOV-NGO'!$B$2:$B$7</definedName>
+    <definedName name="rns" localSheetId="12">GRPO!$B$2:$B$7</definedName>
+    <definedName name="rns" localSheetId="11">GRPT!$B$2:$B$7</definedName>
+    <definedName name="rns" localSheetId="6">INDO!$B$2:$B$7</definedName>
+    <definedName name="rns" localSheetId="7">INDR!$B$2:$B$7</definedName>
+    <definedName name="rns" localSheetId="3">'PKG-PRM'!$B$2:$B$7</definedName>
+    <definedName name="rns" localSheetId="0">RCK!$B$2:$B$7</definedName>
+    <definedName name="rns" localSheetId="5">WSOF!$B$2:$B$7</definedName>
+    <definedName name="rns" localSheetId="4">WSOL!$B$2:$B$7</definedName>
+    <definedName name="timeline">GRPO!$A$2:$A$7</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -44,13 +81,13 @@
     <t>Room Nights Sold</t>
   </si>
   <si>
-    <t>Forecasted Date</t>
-  </si>
-  <si>
     <t>Average Room Rate</t>
   </si>
   <si>
     <t>Revenue</t>
+  </si>
+  <si>
+    <t>Forecasted Date</t>
   </si>
   <si>
     <t>Room Night Sold Forecast</t>
@@ -72,18 +109,19 @@
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="1">
@@ -99,16 +137,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -131,44 +169,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -196,31 +234,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -248,23 +269,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -276,142 +280,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -420,1026 +448,7 @@
   <dimension ref="A1:I315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="G2" t="e">
-        <f>_xlfn.FORECAST.ETS($F2,rns,timeline,1,1)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H2" t="e">
-        <f>_xlfn.FORECAST.ETS($F2,arr,timeline,1,1)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I2" t="e">
-        <f>_xlfn.FORECAST.ETS($F2,rev,timeline,1,1)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="G3" t="e">
-        <f>G2</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H3" t="e">
-        <f>H2</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I3" t="e">
-        <f>I2</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="2"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="2"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="2"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="2"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="2"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="2"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="2"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="2"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="2"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="2"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="2"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="2"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="2"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="2"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="2"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="2"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="2"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="2"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="2"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="2"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="2"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="2"/>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="2"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="2"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="2"/>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="2"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="2"/>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="2"/>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="2"/>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="2"/>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="2"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="2"/>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="2"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="2"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="2"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="2"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="2"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="2"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="2"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="2"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="2"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="2"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="2"/>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="2"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="2"/>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="2"/>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="2"/>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="2"/>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="2"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="2"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="2"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="2"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="2"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="2"/>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="2"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="2"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="2"/>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="2"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="2"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="2"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="2"/>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="2"/>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="2"/>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="2"/>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="2"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="2"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="2"/>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="2"/>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="2"/>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="2"/>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="2"/>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="2"/>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="2"/>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="2"/>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="2"/>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="2"/>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="2"/>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="2"/>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="2"/>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="2"/>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="2"/>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="2"/>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="2"/>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="2"/>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="2"/>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="2"/>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="2"/>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="2"/>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="2"/>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="2"/>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="2"/>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="2"/>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="2"/>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="2"/>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="2"/>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="2"/>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="2"/>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="2"/>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="2"/>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="2"/>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="2"/>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="2"/>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="2"/>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="2"/>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="2"/>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="2"/>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="2"/>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="2"/>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="2"/>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="2"/>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="2"/>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="2"/>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="2"/>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="2"/>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="2"/>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="2"/>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="2"/>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="2"/>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="2"/>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="2"/>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="2"/>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="2"/>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="2"/>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="2"/>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="2"/>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="2"/>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="2"/>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="2"/>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="2"/>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="2"/>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="2"/>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="2"/>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="2"/>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="2"/>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="2"/>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="2"/>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="2"/>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="2"/>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="2"/>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="2"/>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="2"/>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="2"/>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="2"/>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="2"/>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="2"/>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="2"/>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="2"/>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="2"/>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="2"/>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="2"/>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="2"/>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="2"/>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="2"/>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="2"/>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="2"/>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="2"/>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="2"/>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="2"/>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="2"/>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="2"/>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="2"/>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="2"/>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="2"/>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="2"/>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="2"/>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="2"/>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="2"/>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="2"/>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="2"/>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="2"/>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="2"/>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="2"/>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="2"/>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="2"/>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="2"/>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="2"/>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="2"/>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="2"/>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="2"/>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="2"/>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="2"/>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="2"/>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="2"/>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="2"/>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="2"/>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="2"/>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="2"/>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="2"/>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="2"/>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="2"/>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="2"/>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="2"/>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="2"/>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="2"/>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="2"/>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="2"/>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="2"/>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="2"/>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="2"/>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="2"/>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="2"/>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="2"/>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="2"/>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="2"/>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="2"/>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="2"/>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="2"/>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="2"/>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="2"/>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="2"/>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="2"/>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="2"/>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="2"/>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="2"/>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="2"/>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="2"/>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="2"/>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="2"/>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="2"/>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:I315"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,13 +472,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1485,15 +494,15 @@
       <c r="A2" s="2"/>
       <c r="G2" t="e">
         <f>_xlfn.FORECAST.ETS($F2,rns,timeline,1,1)</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H2" t="e">
         <f>_xlfn.FORECAST.ETS($F2,arr,timeline,1,1)</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I2" t="e">
         <f>_xlfn.FORECAST.ETS($F2,rev,timeline,1,1)</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2436,17 +1445,18 @@
       <c r="A315" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2470,13 +1480,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -2492,15 +1502,15 @@
       <c r="A2" s="2"/>
       <c r="G2" t="e">
         <f>_xlfn.FORECAST.ETS($F2,rns,timeline,1,1)</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H2" t="e">
         <f>_xlfn.FORECAST.ETS($F2,arr,timeline,1,1)</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I2" t="e">
         <f>_xlfn.FORECAST.ETS($F2,rev,timeline,1,1)</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3443,17 +2453,18 @@
       <c r="A315" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3477,13 +2488,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -3499,15 +2510,15 @@
       <c r="A2" s="2"/>
       <c r="G2" t="e">
         <f>_xlfn.FORECAST.ETS($F2,rns,timeline,1,1)</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H2" t="e">
         <f>_xlfn.FORECAST.ETS($F2,arr,timeline,1,1)</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I2" t="e">
         <f>_xlfn.FORECAST.ETS($F2,rev,timeline,1,1)</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4450,17 +3461,18 @@
       <c r="A315" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4484,13 +3496,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -4506,15 +3518,15 @@
       <c r="A2" s="2"/>
       <c r="G2" t="e">
         <f>_xlfn.FORECAST.ETS($F2,rns,timeline,1,1)</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H2" t="e">
         <f>_xlfn.FORECAST.ETS($F2,arr,timeline,1,1)</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I2" t="e">
         <f>_xlfn.FORECAST.ETS($F2,rev,timeline,1,1)</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -5457,17 +4469,18 @@
       <c r="A315" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:I315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5491,13 +4504,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -5513,15 +4526,15 @@
       <c r="A2" s="2"/>
       <c r="G2" t="e">
         <f>_xlfn.FORECAST.ETS($F2,rns,timeline,1,1)</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H2" t="e">
         <f>_xlfn.FORECAST.ETS($F2,arr,timeline,1,1)</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I2" t="e">
         <f>_xlfn.FORECAST.ETS($F2,rev,timeline,1,1)</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -6464,17 +5477,18 @@
       <c r="A315" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6498,13 +5512,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -6520,15 +5534,15 @@
       <c r="A2" s="2"/>
       <c r="G2" t="e">
         <f>_xlfn.FORECAST.ETS($F2,rns,timeline,1,1)</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H2" t="e">
         <f>_xlfn.FORECAST.ETS($F2,arr,timeline,1,1)</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I2" t="e">
         <f>_xlfn.FORECAST.ETS($F2,rev,timeline,1,1)</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -7471,17 +6485,18 @@
       <c r="A315" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7505,13 +6520,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -7527,15 +6542,15 @@
       <c r="A2" s="2"/>
       <c r="G2" t="e">
         <f>_xlfn.FORECAST.ETS($F2,rns,timeline,1,1)</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H2" t="e">
         <f>_xlfn.FORECAST.ETS($F2,arr,timeline,1,1)</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I2" t="e">
         <f>_xlfn.FORECAST.ETS($F2,rev,timeline,1,1)</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -8478,17 +7493,18 @@
       <c r="A315" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8512,13 +7528,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -8534,15 +7550,15 @@
       <c r="A2" s="2"/>
       <c r="G2" t="e">
         <f>_xlfn.FORECAST.ETS($F2,rns,timeline,1,1)</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H2" t="e">
         <f>_xlfn.FORECAST.ETS($F2,arr,timeline,1,1)</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I2" t="e">
         <f>_xlfn.FORECAST.ETS($F2,rev,timeline,1,1)</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -9485,17 +8501,18 @@
       <c r="A315" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9519,13 +8536,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -9541,15 +8558,15 @@
       <c r="A2" s="2"/>
       <c r="G2" t="e">
         <f>_xlfn.FORECAST.ETS($F2,rns,timeline,1,1)</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H2" t="e">
         <f>_xlfn.FORECAST.ETS($F2,arr,timeline,1,1)</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I2" t="e">
         <f>_xlfn.FORECAST.ETS($F2,rev,timeline,1,1)</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -10492,17 +9509,18 @@
       <c r="A315" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10526,13 +9544,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -10548,15 +9566,15 @@
       <c r="A2" s="2"/>
       <c r="G2" t="e">
         <f>_xlfn.FORECAST.ETS($F2,rns,timeline,1,1)</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H2" t="e">
         <f>_xlfn.FORECAST.ETS($F2,arr,timeline,1,1)</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I2" t="e">
         <f>_xlfn.FORECAST.ETS($F2,rev,timeline,1,1)</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -11499,17 +10517,18 @@
       <c r="A315" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11533,13 +10552,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -11555,15 +10574,15 @@
       <c r="A2" s="2"/>
       <c r="G2" t="e">
         <f>_xlfn.FORECAST.ETS($F2,rns,timeline,1,1)</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H2" t="e">
         <f>_xlfn.FORECAST.ETS($F2,arr,timeline,1,1)</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I2" t="e">
         <f>_xlfn.FORECAST.ETS($F2,rev,timeline,1,1)</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -12506,17 +11525,18 @@
       <c r="A315" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12540,13 +11560,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -12562,15 +11582,15 @@
       <c r="A2" s="2"/>
       <c r="G2" t="e">
         <f>_xlfn.FORECAST.ETS($F2,rns,timeline,1,1)</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H2" t="e">
         <f>_xlfn.FORECAST.ETS($F2,arr,timeline,1,1)</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I2" t="e">
         <f>_xlfn.FORECAST.ETS($F2,rev,timeline,1,1)</f>
-        <v>#NAME?</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -13513,7 +12533,1016 @@
       <c r="A315" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:I315"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="G2" t="e">
+        <f>_xlfn.FORECAST.ETS($F2,rns,timeline,1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H2" t="e">
+        <f>_xlfn.FORECAST.ETS($F2,arr,timeline,1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I2" t="e">
+        <f>_xlfn.FORECAST.ETS($F2,rev,timeline,1,1)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="2"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="2"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="2"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="2"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="2"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="2"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="2"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="2"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="2"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="2"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="2"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="2"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="2"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="2"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="2"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="2"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="2"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="2"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="2"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="2"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="2"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="2"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="2"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="2"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="2"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="2"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="2"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="2"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="2"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="2"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="2"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="2"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="2"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="2"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="2"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="2"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="2"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="2"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="2"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="2"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="2"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="2"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="2"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="2"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="2"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="2"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="2"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="2"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="2"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="2"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="2"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="2"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="2"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="2"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="2"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="2"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="2"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="2"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="2"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="2"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="2"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="2"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="2"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="2"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="2"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="2"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="2"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="2"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="2"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="2"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="2"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="2"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="2"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="2"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="2"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="2"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="2"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="2"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="2"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="2"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="2"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="2"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="2"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="2"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="2"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="2"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="2"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="2"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="2"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="2"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="2"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="2"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="2"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="2"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="2"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="2"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="2"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="2"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="2"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="2"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="2"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="2"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="2"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="2"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="2"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="2"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="2"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="2"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="2"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="2"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="2"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="2"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="2"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="2"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="2"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="2"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="2"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="2"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="2"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="2"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="2"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="2"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="2"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="2"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="2"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="2"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="2"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="2"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="2"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="2"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="2"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="2"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="2"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="2"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="2"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="2"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="2"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="2"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="2"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="2"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="2"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="2"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="2"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="2"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="2"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="2"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="2"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="2"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="2"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="2"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="2"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="2"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="2"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="2"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="2"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="2"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="2"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="2"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="2"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="2"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="2"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="2"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="2"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="2"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="2"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="2"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="2"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="2"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="2"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="2"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="2"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="2"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="2"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="2"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="2"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="2"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="2"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="2"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="2"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="2"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="2"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="2"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="2"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="2"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="2"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="2"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="2"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="2"/>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="2"/>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="2"/>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="2"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="2"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="2"/>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="2"/>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="2"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="2"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="2"/>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="2"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="2"/>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="2"/>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="2"/>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="2"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/Prototype/PHPSCRIPTS/JASON/ForecastTemplate.xlsx
+++ b/Prototype/PHPSCRIPTS/JASON/ForecastTemplate.xlsx
@@ -447,9 +447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I315"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
